--- a/ARQUIVOS/modelo de impressão para o inventario de obras - Original.xlsx
+++ b/ARQUIVOS/modelo de impressão para o inventario de obras - Original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luan.pinto\Desktop\Códigos\Projeto - Controle de obras\ARQUIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A885A9A-6978-4B8D-AC08-4A6A75350B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE50544B-59F3-4F43-A1B0-A1E3DC6143D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{5579F6E4-AF08-4AC7-8257-E12571FE0D90}"/>
   </bookViews>
@@ -393,6 +393,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -406,12 +412,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -814,7 +814,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,15 +886,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
@@ -904,28 +904,28 @@
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="F3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -939,17 +939,17 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -962,10 +962,10 @@
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
@@ -985,10 +985,10 @@
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1002,10 +1002,10 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1016,15 +1016,15 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="F12" s="29" t="s">
+      <c r="B12" s="23"/>
+      <c r="F12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -1034,28 +1034,28 @@
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="F14" s="29" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="F14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1069,17 +1069,17 @@
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1092,10 +1092,10 @@
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1115,10 +1115,10 @@
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="9" t="s">
         <v>13</v>
       </c>
@@ -1132,10 +1132,10 @@
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="14" t="s">
         <v>15</v>
       </c>
@@ -1144,6 +1144,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="A1:B1"/>
@@ -1157,11 +1162,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
